--- a/BOM/accelBOM-RevA.xlsx
+++ b/BOM/accelBOM-RevA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>TESA - Industrial Design Project - Summer 2014</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>for 25: 0.129/0.106/0.079</t>
+  </si>
+  <si>
+    <t>941-CLA1BWKWXD0F0DY3</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>CLA1B-WKW-XD0F0DY3</t>
+  </si>
+  <si>
+    <t>0.282/0.247/0.223</t>
   </si>
 </sst>
 </file>
@@ -170,11 +182,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +492,7 @@
   <dimension ref="A3:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:J12"/>
+      <selection activeCell="F11" sqref="F11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +626,21 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -634,7 +661,7 @@
       <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J12" t="s">
@@ -642,19 +669,19 @@
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM/accelBOM-RevA.xlsx
+++ b/BOM/accelBOM-RevA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>TESA - Industrial Design Project - Summer 2014</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>0.282/0.247/0.223</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t>81-GRM18R60J475KE19D</t>
+  </si>
+  <si>
+    <t>GRM188R60J475KE19D</t>
+  </si>
+  <si>
+    <t>0.061/0.035/--</t>
   </si>
 </sst>
 </file>
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:J11"/>
+      <selection activeCell="F10" sqref="F10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,13 +607,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -607,69 +622,95 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
@@ -683,9 +724,12 @@
     <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F27:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
